--- a/docs/StructureDefinition-VAAppointment.xlsx
+++ b/docs/StructureDefinition-VAAppointment.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="284">
   <si>
     <t>Path</t>
   </si>
@@ -316,21 +316,21 @@
     <t>Appointment.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -339,17 +339,10 @@
     <t>Appointment.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -770,9 +763,6 @@
   </si>
   <si>
     <t>Appointment.participant.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -2036,7 +2026,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2055,15 +2045,17 @@
         <v>41</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>41</v>
@@ -2100,14 +2092,16 @@
         <v>41</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>101</v>
@@ -2128,7 +2122,7 @@
         <v>41</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>41</v>
@@ -2146,7 +2140,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2165,16 +2159,16 @@
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2224,7 +2218,7 @@
         <v>41</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2256,7 +2250,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2279,13 +2273,13 @@
         <v>52</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2336,7 +2330,7 @@
         <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
@@ -2354,28 +2348,28 @@
         <v>41</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E12" t="s" s="2">
         <v>51</v>
@@ -2396,13 +2390,13 @@
         <v>70</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2428,14 +2422,14 @@
         <v>41</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="X12" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>123</v>
-      </c>
       <c r="Z12" t="s" s="2">
         <v>41</v>
       </c>
@@ -2452,7 +2446,7 @@
         <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>51</v>
@@ -2467,24 +2461,24 @@
         <v>41</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>127</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2507,13 +2501,13 @@
         <v>52</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2540,11 +2534,11 @@
         <v>41</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>41</v>
@@ -2562,7 +2556,7 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
@@ -2580,7 +2574,7 @@
         <v>41</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>41</v>
@@ -2594,7 +2588,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2617,13 +2611,13 @@
         <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2650,11 +2644,11 @@
         <v>41</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>41</v>
@@ -2672,7 +2666,7 @@
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -2690,7 +2684,7 @@
         <v>41</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>41</v>
@@ -2704,7 +2698,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2727,13 +2721,13 @@
         <v>52</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2760,11 +2754,11 @@
         <v>41</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>41</v>
@@ -2782,7 +2776,7 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -2800,13 +2794,13 @@
         <v>41</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>41</v>
@@ -2814,7 +2808,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2837,13 +2831,13 @@
         <v>52</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2870,11 +2864,11 @@
         <v>41</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>41</v>
@@ -2892,7 +2886,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -2910,7 +2904,7 @@
         <v>41</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>41</v>
@@ -2919,12 +2913,12 @@
         <v>41</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2947,13 +2941,13 @@
         <v>52</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2980,13 +2974,13 @@
         <v>41</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>41</v>
@@ -3004,7 +2998,7 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3022,7 +3016,7 @@
         <v>41</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>41</v>
@@ -3031,12 +3025,12 @@
         <v>41</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3059,13 +3053,13 @@
         <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3116,7 +3110,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3134,7 +3128,7 @@
         <v>41</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>41</v>
@@ -3148,7 +3142,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3171,16 +3165,16 @@
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3230,7 +3224,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3248,21 +3242,21 @@
         <v>41</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>171</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3285,13 +3279,13 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3342,7 +3336,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3360,21 +3354,21 @@
         <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>178</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3397,13 +3391,13 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3454,7 +3448,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3472,13 +3466,13 @@
         <v>41</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -3486,14 +3480,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E22" t="s" s="2">
         <v>42</v>
@@ -3511,13 +3505,13 @@
         <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3568,7 +3562,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3583,24 +3577,24 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>193</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3623,13 +3617,13 @@
         <v>52</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3680,7 +3674,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -3698,21 +3692,21 @@
         <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>199</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3735,13 +3729,13 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3792,7 +3786,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -3810,7 +3804,7 @@
         <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>41</v>
@@ -3824,7 +3818,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3847,13 +3841,13 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3904,7 +3898,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -3922,7 +3916,7 @@
         <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>41</v>
@@ -3936,7 +3930,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3959,16 +3953,16 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4018,7 +4012,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4036,7 +4030,7 @@
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>41</v>
@@ -4050,7 +4044,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4073,16 +4067,16 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4132,7 +4126,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4150,21 +4144,21 @@
         <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4187,13 +4181,13 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4244,7 +4238,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4262,7 +4256,7 @@
         <v>41</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>41</v>
@@ -4276,7 +4270,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4299,13 +4293,13 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4356,7 +4350,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>51</v>
@@ -4368,27 +4362,27 @@
         <v>41</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>234</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4411,13 +4405,13 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4468,7 +4462,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4486,7 +4480,7 @@
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>41</v>
@@ -4500,11 +4494,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4523,16 +4517,16 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>241</v>
+        <v>98</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4582,7 +4576,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4600,7 +4594,7 @@
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>41</v>
@@ -4614,11 +4608,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4637,16 +4631,16 @@
         <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4696,7 +4690,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -4728,7 +4722,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4751,16 +4745,16 @@
         <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4789,10 +4783,10 @@
         <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>41</v>
@@ -4810,7 +4804,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -4828,21 +4822,21 @@
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4865,13 +4859,13 @@
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4922,7 +4916,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -4940,21 +4934,21 @@
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>263</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4980,10 +4974,10 @@
         <v>70</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5010,13 +5004,13 @@
         <v>41</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>41</v>
@@ -5034,7 +5028,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5052,10 +5046,10 @@
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>41</v>
@@ -5066,7 +5060,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5092,10 +5086,10 @@
         <v>70</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5104,7 +5098,7 @@
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>41</v>
@@ -5122,13 +5116,13 @@
         <v>41</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>41</v>
@@ -5146,7 +5140,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>51</v>
@@ -5164,21 +5158,21 @@
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5201,16 +5195,16 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5260,7 +5254,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5278,7 +5272,7 @@
         <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>41</v>
@@ -5287,7 +5281,7 @@
         <v>41</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-VAAppointment.xlsx
+++ b/docs/StructureDefinition-VAAppointment.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="286">
   <si>
     <t>Path</t>
   </si>
@@ -815,14 +815,20 @@
     <t>Appointment.participant.actor</t>
   </si>
   <si>
+    <t>TREATING SPECIALTY</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference(Patient|Practitioner|RelatedPerson|Device|HealthcareService|Location)
 </t>
   </si>
   <si>
-    <t>Person, Location/HealthcareService or Device</t>
+    <t>specialty</t>
   </si>
   <si>
     <t>A Person, Location/HealthcareService or Device that is participating in the appointment.</t>
+  </si>
+  <si>
+    <t>HOSPITAL LOCATION @TREATING SPECIALTY 2.98-21:409.68-.04:44-9.5</t>
   </si>
   <si>
     <t>performer.person | reusableDevice.manufacturedDevice | subject.patient | location.serviceDeliveryLocation</t>
@@ -1097,7 +1103,7 @@
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="49.75390625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="66.9453125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="110.078125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="155.203125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="24.35546875" customWidth="true" bestFit="true"/>
@@ -4834,7 +4840,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>253</v>
       </c>
@@ -4842,7 +4848,9 @@
       <c r="C34" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="E34" t="s" s="2">
         <v>42</v>
       </c>
@@ -4850,7 +4858,7 @@
         <v>51</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>41</v>
@@ -4859,13 +4867,13 @@
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4931,24 +4939,24 @@
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4974,10 +4982,10 @@
         <v>70</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5007,10 +5015,10 @@
         <v>119</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>41</v>
@@ -5028,7 +5036,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5046,10 +5054,10 @@
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>41</v>
@@ -5060,7 +5068,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5086,10 +5094,10 @@
         <v>70</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5098,7 +5106,7 @@
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>41</v>
@@ -5119,10 +5127,10 @@
         <v>119</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>41</v>
@@ -5140,7 +5148,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>51</v>
@@ -5158,21 +5166,21 @@
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5195,16 +5203,16 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5254,7 +5262,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5272,7 +5280,7 @@
         <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>41</v>
@@ -5281,7 +5289,7 @@
         <v>41</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
